--- a/data/trans_bre/DC-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/DC-Provincia-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 13,46</t>
+          <t>1,46; 14,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,62; 17,12</t>
+          <t>4,48; 16,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,85; 14,55</t>
+          <t>3,49; 14,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,95; 155,51</t>
+          <t>6,8; 148,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,55; 239,87</t>
+          <t>35,38; 233,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,37; 142,86</t>
+          <t>22,89; 146,1</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,37; 17,33</t>
+          <t>5,2; 16,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,2; 14,64</t>
+          <t>6,13; 14,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 8,36</t>
+          <t>1,1; 7,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,14; 23,1</t>
+          <t>12,24; 23,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,04; 90,73</t>
+          <t>21,46; 87,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>66,44; 300,6</t>
+          <t>66,89; 288,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,98; 177,6</t>
+          <t>11,35; 158,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>52,74; 144,4</t>
+          <t>51,39; 150,33</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,82; 15,19</t>
+          <t>4,1; 14,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 15,11</t>
+          <t>4,49; 15,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,69; 13,95</t>
+          <t>4,13; 14,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,18; 19,85</t>
+          <t>7,38; 19,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,87; 205,11</t>
+          <t>27,97; 178,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,92; 251,83</t>
+          <t>40,88; 253,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34,7; 243,46</t>
+          <t>41,28; 244,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,24; 99,31</t>
+          <t>28,24; 97,08</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 5,43</t>
+          <t>-6,73; 4,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 15,11</t>
+          <t>7,2; 15,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,22; 15,4</t>
+          <t>4,73; 15,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,32; 28,15</t>
+          <t>13,22; 28,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,01; 33,96</t>
+          <t>-29,71; 29,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>58,83; 192,92</t>
+          <t>61,75; 194,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,33; 203,18</t>
+          <t>36,3; 203,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>53,41; 191,05</t>
+          <t>59,33; 198,28</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,54; 17,62</t>
+          <t>5,15; 18,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,49; 23,44</t>
+          <t>7,61; 23,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 12,25</t>
+          <t>-0,31; 11,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,04; 19,6</t>
+          <t>2,33; 19,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>51,0; 370,73</t>
+          <t>47,12; 396,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>37,24; 205,22</t>
+          <t>41,27; 205,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 163,5</t>
+          <t>-4,22; 163,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,23; 131,39</t>
+          <t>12,55; 126,83</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,64; 14,61</t>
+          <t>2,24; 15,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,38; 15,42</t>
+          <t>2,35; 15,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 9,97</t>
+          <t>-0,5; 10,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,03; 21,63</t>
+          <t>7,4; 21,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,38; 111,56</t>
+          <t>11,1; 118,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,3; 128,59</t>
+          <t>12,4; 131,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 171,15</t>
+          <t>-5,39; 174,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,62; 84,07</t>
+          <t>23,3; 85,57</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 5,79</t>
+          <t>-2,02; 7,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,31; 16,98</t>
+          <t>7,75; 16,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,02; 10,56</t>
+          <t>3,4; 10,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,66; 45,41</t>
+          <t>22,8; 46,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,23; 41,92</t>
+          <t>-11,95; 52,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>60,41; 173,85</t>
+          <t>59,33; 178,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>25,8; 142,81</t>
+          <t>28,96; 140,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>66,95; 152,98</t>
+          <t>67,9; 159,05</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,31; 12,39</t>
+          <t>3,98; 12,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,26; 10,78</t>
+          <t>4,06; 10,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,03; 7,56</t>
+          <t>0,93; 7,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,09; 19,21</t>
+          <t>10,39; 19,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>19,72; 71,48</t>
+          <t>17,47; 71,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>42,38; 160,3</t>
+          <t>39,61; 162,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,19; 102,9</t>
+          <t>8,43; 103,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>50,51; 128,15</t>
+          <t>51,66; 125,98</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,1; 8,98</t>
+          <t>4,81; 8,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,63; 11,85</t>
+          <t>8,63; 12,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,78; 7,97</t>
+          <t>4,89; 8,1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,63; 24,49</t>
+          <t>15,59; 24,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>28,75; 57,15</t>
+          <t>27,46; 55,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>81,66; 132,83</t>
+          <t>82,43; 133,27</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>51,68; 100,78</t>
+          <t>51,36; 102,5</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>69,03; 116,41</t>
+          <t>67,76; 112,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/DC-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/DC-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 14,27</t>
+          <t>1,27; 13,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,48; 16,4</t>
+          <t>4,65; 17,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,8; 148,98</t>
+          <t>8,53; 151,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,38; 233,45</t>
+          <t>37,4; 233,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,2; 16,33</t>
+          <t>4,93; 16,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,13; 14,3</t>
+          <t>6,62; 14,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 7,77</t>
+          <t>1,16; 8,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,46; 87,87</t>
+          <t>19,93; 84,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>66,89; 288,67</t>
+          <t>71,04; 291,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,35; 158,08</t>
+          <t>12,17; 173,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,1; 14,55</t>
+          <t>4,25; 15,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,49; 15,51</t>
+          <t>5,14; 14,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,13; 14,28</t>
+          <t>3,59; 13,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,97; 178,46</t>
+          <t>33,52; 197,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>40,88; 253,56</t>
+          <t>46,22; 264,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>41,28; 244,09</t>
+          <t>34,14; 241,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 4,7</t>
+          <t>-6,67; 5,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,2; 15,17</t>
+          <t>7,13; 14,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,73; 15,33</t>
+          <t>4,64; 15,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,71; 29,57</t>
+          <t>-29,71; 31,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,75; 194,58</t>
+          <t>64,01; 195,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,3; 203,42</t>
+          <t>37,32; 194,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,15; 18,2</t>
+          <t>5,27; 17,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,61; 23,12</t>
+          <t>7,44; 23,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 11,69</t>
+          <t>-1,1; 11,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>47,12; 396,18</t>
+          <t>47,14; 360,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,27; 205,24</t>
+          <t>38,14; 201,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 163,05</t>
+          <t>-9,85; 170,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,24; 15,38</t>
+          <t>2,01; 15,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,35; 15,97</t>
+          <t>2,02; 15,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 10,21</t>
+          <t>-0,66; 9,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,1; 118,68</t>
+          <t>10,74; 119,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,4; 131,96</t>
+          <t>11,06; 131,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 174,58</t>
+          <t>-8,06; 167,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 7,13</t>
+          <t>-1,83; 6,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,75; 16,45</t>
+          <t>8,46; 16,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,4; 10,66</t>
+          <t>3,2; 10,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 52,71</t>
+          <t>-10,64; 47,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>59,33; 178,2</t>
+          <t>62,95; 178,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>28,96; 140,13</t>
+          <t>28,11; 140,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,98; 12,81</t>
+          <t>4,18; 12,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,06; 10,88</t>
+          <t>4,14; 10,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,93; 7,5</t>
+          <t>1,2; 7,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,47; 71,97</t>
+          <t>18,97; 71,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>39,61; 162,18</t>
+          <t>42,43; 158,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,43; 103,28</t>
+          <t>10,22; 100,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,81; 8,74</t>
+          <t>4,89; 8,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,63; 12,07</t>
+          <t>8,64; 12,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,89; 8,1</t>
+          <t>4,88; 8,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>27,46; 55,47</t>
+          <t>27,87; 56,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>82,43; 133,27</t>
+          <t>80,68; 131,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>51,36; 102,5</t>
+          <t>52,3; 102,51</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/DC-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/DC-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,27; 13,67</t>
+          <t>1,02; 13,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,65; 17,06</t>
+          <t>4,62; 17,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,49; 14,3</t>
+          <t>3,85; 14,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,53; 151,31</t>
+          <t>5,95; 155,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,4; 233,43</t>
+          <t>34,55; 239,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,89; 146,1</t>
+          <t>22,37; 142,86</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,93; 16,08</t>
+          <t>5,37; 17,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,62; 14,99</t>
+          <t>6,2; 14,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 8,09</t>
+          <t>1,14; 8,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,24; 23,87</t>
+          <t>12,14; 23,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,93; 84,39</t>
+          <t>22,04; 90,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>71,04; 291,35</t>
+          <t>66,44; 300,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,17; 173,13</t>
+          <t>11,98; 177,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,39; 150,33</t>
+          <t>52,74; 144,4</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,25; 15,11</t>
+          <t>3,82; 15,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 14,96</t>
+          <t>4,23; 15,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 13,62</t>
+          <t>3,69; 13,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,38; 19,44</t>
+          <t>8,18; 19,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,52; 197,24</t>
+          <t>30,87; 205,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,22; 264,43</t>
+          <t>35,92; 251,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34,14; 241,92</t>
+          <t>34,7; 243,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28,24; 97,08</t>
+          <t>30,24; 99,31</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 5,18</t>
+          <t>-6,0; 5,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,13; 14,94</t>
+          <t>6,86; 15,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,64; 15,29</t>
+          <t>5,22; 15,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,22; 28,65</t>
+          <t>12,32; 28,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,71; 31,42</t>
+          <t>-27,01; 33,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>64,01; 195,48</t>
+          <t>58,83; 192,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,32; 194,18</t>
+          <t>41,33; 203,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>59,33; 198,28</t>
+          <t>53,41; 191,05</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,27; 17,92</t>
+          <t>5,54; 17,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,44; 23,33</t>
+          <t>7,49; 23,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 11,56</t>
+          <t>-0,98; 12,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,33; 19,53</t>
+          <t>2,04; 19,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>47,14; 360,31</t>
+          <t>51,0; 370,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,14; 201,02</t>
+          <t>37,24; 205,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 170,17</t>
+          <t>-9,79; 163,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,55; 126,83</t>
+          <t>10,23; 131,39</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,01; 15,14</t>
+          <t>0,64; 14,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,02; 15,53</t>
+          <t>1,38; 15,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 9,75</t>
+          <t>-0,43; 9,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,4; 21,38</t>
+          <t>8,03; 21,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,74; 119,53</t>
+          <t>2,38; 111,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,06; 131,27</t>
+          <t>6,3; 128,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 167,47</t>
+          <t>-6,6; 171,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,3; 85,57</t>
+          <t>23,62; 84,07</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 6,52</t>
+          <t>-2,31; 5,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,46; 16,71</t>
+          <t>8,31; 16,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,2; 10,66</t>
+          <t>3,02; 10,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,8; 46,1</t>
+          <t>22,66; 45,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 47,75</t>
+          <t>-13,23; 41,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>62,95; 178,13</t>
+          <t>60,41; 173,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>28,11; 140,53</t>
+          <t>25,8; 142,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>67,9; 159,05</t>
+          <t>66,95; 152,98</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,18; 12,95</t>
+          <t>4,31; 12,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,14; 10,65</t>
+          <t>4,26; 10,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,2; 7,44</t>
+          <t>1,03; 7,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,39; 19,18</t>
+          <t>10,09; 19,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,97; 71,67</t>
+          <t>19,72; 71,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>42,43; 158,25</t>
+          <t>42,38; 160,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,22; 100,91</t>
+          <t>8,19; 102,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>51,66; 125,98</t>
+          <t>50,51; 128,15</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,89; 8,9</t>
+          <t>5,1; 8,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,64; 12,07</t>
+          <t>8,63; 11,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,88; 8,32</t>
+          <t>4,78; 7,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,59; 24,32</t>
+          <t>15,63; 24,49</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>27,87; 56,53</t>
+          <t>28,75; 57,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>80,68; 131,54</t>
+          <t>81,66; 132,83</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>52,3; 102,51</t>
+          <t>51,68; 100,78</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>67,76; 112,79</t>
+          <t>69,03; 116,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/DC-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/DC-Provincia-trans_bre.xlsx
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,36</t>
+          <t>7,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>17,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,7</t>
+          <t>15,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,46</t>
+          <t>9,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>64,25%</t>
+          <t>55,46%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>220,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>110,4%</t>
+          <t>147,05%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>72,8%</t>
+          <t>77,49%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 13,46</t>
+          <t>0,56; 13,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,89; 24,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,62; 17,12</t>
+          <t>8,39; 21,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,85; 14,55</t>
+          <t>3,89; 14,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,95; 155,51</t>
+          <t>2,12; 126,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>103,0; 400,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,55; 239,87</t>
+          <t>58,78; 265,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,37; 142,86</t>
+          <t>22,69; 152,03</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,99</t>
+          <t>22,71</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,37</t>
+          <t>13,32</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,89</t>
+          <t>18,31</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>50,49%</t>
+          <t>102,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>156,99%</t>
+          <t>196,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>70,46%</t>
+          <t>79,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>96,73%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,37; 17,33</t>
+          <t>16,83; 28,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,2; 14,64</t>
+          <t>9,04; 17,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 8,36</t>
+          <t>1,67; 8,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,14; 23,1</t>
+          <t>12,35; 23,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,04; 90,73</t>
+          <t>67,22; 148,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>66,44; 300,6</t>
+          <t>96,38; 351,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,98; 177,6</t>
+          <t>20,11; 187,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>52,74; 144,4</t>
+          <t>54,8; 150,25</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,77</t>
+          <t>11,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,47</t>
+          <t>11,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,8</t>
+          <t>10,63</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,47</t>
+          <t>13,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>111,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>114,25%</t>
+          <t>132,96%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>113,93%</t>
+          <t>132,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>57,98%</t>
+          <t>60,9%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,82; 15,19</t>
+          <t>5,64; 16,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 15,11</t>
+          <t>6,27; 17,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,69; 13,95</t>
+          <t>5,39; 16,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,18; 19,85</t>
+          <t>8,58; 20,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,87; 205,11</t>
+          <t>42,63; 226,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,92; 251,83</t>
+          <t>54,84; 282,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34,7; 243,46</t>
+          <t>50,66; 262,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,24; 99,31</t>
+          <t>32,54; 104,46</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,97</t>
+          <t>16,13</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,1</t>
+          <t>13,4</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,26</t>
+          <t>25,02</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,45%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>116,81%</t>
+          <t>141,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>99,26%</t>
+          <t>125,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>108,56%</t>
+          <t>142,86%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 5,43</t>
+          <t>-3,85; 7,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 15,11</t>
+          <t>10,27; 21,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,22; 15,4</t>
+          <t>7,93; 19,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,32; 28,15</t>
+          <t>12,42; 50,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,01; 33,96</t>
+          <t>-16,41; 47,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>58,83; 192,92</t>
+          <t>68,39; 235,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,33; 203,18</t>
+          <t>63,23; 226,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>53,41; 191,05</t>
+          <t>61,06; 347,18</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,54</t>
+          <t>12,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>15,14</t>
+          <t>22,79</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>9,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,23</t>
+          <t>9,55</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>163,06%</t>
+          <t>169,85%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>100,88%</t>
+          <t>136,88%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>56,36%</t>
+          <t>83,47%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>65,48%</t>
+          <t>51,15%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,54; 17,62</t>
+          <t>5,91; 18,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,49; 23,44</t>
+          <t>14,39; 31,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 12,25</t>
+          <t>1,41; 15,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,04; 19,6</t>
+          <t>-4,77; 18,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>51,0; 370,73</t>
+          <t>55,47; 382,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>37,24; 205,22</t>
+          <t>68,11; 253,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 163,5</t>
+          <t>5,9; 201,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,23; 131,39</t>
+          <t>-17,93; 114,62</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,62</t>
+          <t>10,73</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,26</t>
+          <t>11,68</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,77</t>
+          <t>15,05</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>54,3%</t>
+          <t>65,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>61,82%</t>
+          <t>76,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>59,24%</t>
+          <t>55,03%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>51,01%</t>
+          <t>52,63%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,64; 14,61</t>
+          <t>2,38; 17,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,38; 15,42</t>
+          <t>3,92; 18,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 9,97</t>
+          <t>-0,04; 11,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,03; 21,63</t>
+          <t>8,39; 21,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,38; 111,56</t>
+          <t>10,1; 125,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,3; 128,59</t>
+          <t>18,89; 144,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 171,15</t>
+          <t>-3,42; 156,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,62; 84,07</t>
+          <t>24,98; 86,65</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,58</t>
+          <t>14,42</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,88</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>30,6</t>
+          <t>35,65</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>24,77%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>110,22%</t>
+          <t>119,48%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>73,81%</t>
+          <t>100,08%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>114,54%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 5,79</t>
+          <t>-0,44; 8,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,31; 16,98</t>
+          <t>10,01; 18,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,02; 10,56</t>
+          <t>6,78; 14,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,66; 45,41</t>
+          <t>23,32; 53,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,23; 41,92</t>
+          <t>-2,74; 58,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>60,41; 173,85</t>
+          <t>68,28; 182,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>25,8; 142,81</t>
+          <t>50,31; 164,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>66,95; 152,98</t>
+          <t>73,12; 195,31</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8,68</t>
+          <t>11,61</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>7,35</t>
+          <t>9,08</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>14,48</t>
+          <t>18,59</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>44,33%</t>
+          <t>52,35%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>89,79%</t>
+          <t>103,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>48,83%</t>
+          <t>60,15%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>80,99%</t>
+          <t>132,19%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,31; 12,39</t>
+          <t>6,86; 15,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,26; 10,78</t>
+          <t>5,89; 12,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,03; 7,56</t>
+          <t>2,33; 9,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,09; 19,21</t>
+          <t>12,02; 27,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>19,72; 71,48</t>
+          <t>27,86; 79,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>42,38; 160,3</t>
+          <t>55,61; 172,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,19; 102,9</t>
+          <t>21,14; 117,95</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>50,51; 128,15</t>
+          <t>59,68; 394,21</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>6,98</t>
+          <t>10,35</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>10,32</t>
+          <t>13,5</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>18,56</t>
+          <t>22,16</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>42,46%</t>
+          <t>59,13%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>105,49%</t>
+          <t>130,59%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>75,26%</t>
+          <t>93,85%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>85,32%</t>
+          <t>109,71%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,1; 8,98</t>
+          <t>8,42; 12,36</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,63; 11,85</t>
+          <t>11,67; 15,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,78; 7,97</t>
+          <t>7,18; 10,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,63; 24,49</t>
+          <t>16,89; 33,62</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>28,75; 57,15</t>
+          <t>45,86; 73,8</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>81,66; 132,83</t>
+          <t>104,6; 158,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>51,68; 100,78</t>
+          <t>69,92; 122,32</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>69,03; 116,41</t>
+          <t>79,46; 196,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/DC-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/DC-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 13,62</t>
+          <t>1,45; 14,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,89; 24,78</t>
+          <t>11,15; 24,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,39; 21,8</t>
+          <t>8,98; 21,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,89; 14,68</t>
+          <t>3,79; 14,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 126,36</t>
+          <t>8,78; 133,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>103,0; 400,67</t>
+          <t>103,85; 402,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>58,78; 265,53</t>
+          <t>63,09; 280,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,69; 152,03</t>
+          <t>23,28; 147,89</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,83; 28,9</t>
+          <t>17,05; 28,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,04; 17,57</t>
+          <t>8,95; 17,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 8,97</t>
+          <t>1,13; 8,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,35; 23,72</t>
+          <t>12,78; 24,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>67,22; 148,26</t>
+          <t>66,04; 146,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>96,38; 351,94</t>
+          <t>100,83; 351,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,11; 187,88</t>
+          <t>13,75; 181,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>54,8; 150,25</t>
+          <t>55,99; 154,73</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,64; 16,85</t>
+          <t>5,76; 16,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,27; 17,1</t>
+          <t>5,45; 16,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,39; 16,04</t>
+          <t>5,09; 15,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,58; 20,2</t>
+          <t>7,68; 19,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>42,63; 226,08</t>
+          <t>44,67; 217,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>54,84; 282,32</t>
+          <t>49,96; 271,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>50,66; 262,93</t>
+          <t>51,1; 259,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,54; 104,46</t>
+          <t>28,7; 102,25</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 7,8</t>
+          <t>-4,76; 7,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,27; 21,94</t>
+          <t>10,41; 21,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,93; 19,13</t>
+          <t>8,24; 19,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,42; 50,63</t>
+          <t>11,45; 46,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 47,97</t>
+          <t>-21,21; 45,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>68,39; 235,44</t>
+          <t>68,68; 233,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>63,23; 226,03</t>
+          <t>59,05; 228,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>61,06; 347,18</t>
+          <t>56,73; 295,76</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,91; 18,22</t>
+          <t>5,32; 18,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,39; 31,3</t>
+          <t>14,28; 30,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 15,79</t>
+          <t>2,22; 16,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 18,79</t>
+          <t>-4,62; 18,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>55,47; 382,81</t>
+          <t>45,54; 413,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>68,11; 253,28</t>
+          <t>67,67; 245,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,9; 201,29</t>
+          <t>14,38; 193,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 114,62</t>
+          <t>-20,01; 107,51</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,38; 17,22</t>
+          <t>3,72; 17,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,92; 18,08</t>
+          <t>4,58; 18,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 11,26</t>
+          <t>-0,02; 11,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,39; 21,92</t>
+          <t>8,13; 21,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,1; 125,89</t>
+          <t>18,75; 140,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,89; 144,75</t>
+          <t>22,51; 152,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 156,89</t>
+          <t>-2,62; 157,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>24,98; 86,65</t>
+          <t>25,25; 88,53</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 8,17</t>
+          <t>0,11; 8,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,01; 18,93</t>
+          <t>10,02; 18,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,78; 14,92</t>
+          <t>6,96; 15,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,32; 53,71</t>
+          <t>23,58; 52,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 58,18</t>
+          <t>-0,17; 57,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>68,28; 182,13</t>
+          <t>70,13; 185,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>50,31; 164,54</t>
+          <t>53,91; 178,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>73,12; 195,31</t>
+          <t>74,4; 194,6</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,86; 15,8</t>
+          <t>7,1; 15,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,89; 12,47</t>
+          <t>5,84; 12,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,33; 9,22</t>
+          <t>2,3; 9,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12,02; 27,91</t>
+          <t>12,22; 28,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>27,86; 79,14</t>
+          <t>28,97; 77,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>55,61; 172,55</t>
+          <t>57,31; 172,78</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>21,14; 117,95</t>
+          <t>20,23; 110,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>59,68; 394,21</t>
+          <t>60,99; 413,83</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,42; 12,36</t>
+          <t>8,35; 12,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,67; 15,2</t>
+          <t>11,66; 15,19</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,18; 10,59</t>
+          <t>7,15; 10,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16,89; 33,62</t>
+          <t>16,76; 32,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>45,86; 73,8</t>
+          <t>45,37; 75,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>104,6; 158,77</t>
+          <t>103,9; 159,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>69,92; 122,32</t>
+          <t>70,34; 121,69</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>79,46; 196,81</t>
+          <t>76,87; 186,06</t>
         </is>
       </c>
     </row>
